--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\ClueGameDRSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,12 +185,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +479,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +500,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -530,7 +565,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -597,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="X2">
-        <f>X1+1</f>
+        <f t="shared" ref="X2:X23" si="0">X1+1</f>
         <v>1</v>
       </c>
     </row>
@@ -635,7 +670,7 @@
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -672,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="X3">
-        <f>X2+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -728,7 +763,7 @@
       <c r="Q4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -747,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="X4">
-        <f>X3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -758,10 +793,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -822,18 +857,18 @@
         <v>12</v>
       </c>
       <c r="X5">
-        <f>X4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -897,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="X6">
-        <f>X5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -932,7 +967,7 @@
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -972,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="X7">
-        <f>X6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1022,7 +1057,7 @@
       <c r="O8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -1047,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="X8">
-        <f>X7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1112,7 +1147,7 @@
       <c r="T9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -1122,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="X9">
-        <f>X8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1197,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <f>X9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1272,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="X11">
-        <f>X10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1292,7 +1327,7 @@
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1347,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="X12">
-        <f>X11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -1422,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="X13">
-        <f>X12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1497,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="X14">
-        <f>X13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1572,12 +1607,12 @@
         <v>14</v>
       </c>
       <c r="X15">
-        <f>X14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1586,7 +1621,7 @@
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1643,11 +1678,11 @@
       <c r="V16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X16">
-        <f>X15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1673,7 +1708,7 @@
       <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -1685,7 +1720,7 @@
       <c r="K17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1703,7 +1738,7 @@
       <c r="Q17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -1722,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="X17">
-        <f>X16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1742,7 +1777,7 @@
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1751,7 +1786,7 @@
       <c r="H18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1775,7 +1810,7 @@
       <c r="P18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -1797,7 +1832,7 @@
         <v>20</v>
       </c>
       <c r="X18">
-        <f>X17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -1872,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="X19">
-        <f>X18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -1947,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="X20">
-        <f>X19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -2012,7 +2047,7 @@
       <c r="T21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -2022,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="X21">
-        <f>X20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2097,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="X22">
-        <f>X21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -2172,7 +2207,7 @@
         <v>20</v>
       </c>
       <c r="X23">
-        <f>X22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -2247,7 +2282,7 @@
         <v>20</v>
       </c>
       <c r="X24">
-        <f t="shared" ref="X24" si="0">X23+1</f>
+        <f t="shared" ref="X24" si="1">X23+1</f>
         <v>23</v>
       </c>
     </row>
@@ -2267,13 +2302,13 @@
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2300,7 +2335,7 @@
       <c r="P25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -2332,91 +2367,91 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <f>A$26+1</f>
+        <f t="shared" ref="B26:W26" si="2">A$26+1</f>
         <v>1</v>
       </c>
       <c r="C26">
-        <f>B$26+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D26">
-        <f>C$26+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E26">
-        <f>D$26+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F26">
-        <f>E$26+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G26">
-        <f>F$26+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H26">
-        <f>G$26+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I26">
-        <f>H$26+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J26">
-        <f>I$26+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K26">
-        <f>J$26+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L26">
-        <f>K$26+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M26">
-        <f>L$26+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N26">
-        <f>M$26+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O26">
-        <f>N$26+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P26">
-        <f>O$26+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Q26">
-        <f>P$26+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="R26">
-        <f>Q$26+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="S26">
-        <f>R$26+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T26">
-        <f>S$26+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="U26">
-        <f>T$26+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="V26">
-        <f>U$26+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="W26">
-        <f>V$26+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\ClueGameDRSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\CSCI306\ClueGameDRSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +486,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +740,7 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -745,7 +752,7 @@
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1135,7 +1142,7 @@
       <c r="P9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1180,7 +1187,7 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1229,7 +1229,7 @@
       <c r="T10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="3" t="s">
